--- a/KimExportedData.xlsx
+++ b/KimExportedData.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="57">
   <si>
     <t>Student ID</t>
   </si>
@@ -77,6 +77,9 @@
     <t>Parent's Gender</t>
   </si>
   <si>
+    <t>Relationship to Child</t>
+  </si>
+  <si>
     <t>Parent Main Phone</t>
   </si>
   <si>
@@ -104,13 +107,16 @@
     <t>Second Parent's Gender</t>
   </si>
   <si>
+    <t>Second Parent's Relationship to Child</t>
+  </si>
+  <si>
     <t>Second Parent's Phone</t>
   </si>
   <si>
-    <t>ALEXIS</t>
-  </si>
-  <si>
-    <t>GONZALEZ PEREZ</t>
+    <t>Kid2First</t>
+  </si>
+  <si>
+    <t>Kid2Last</t>
   </si>
   <si>
     <t>Male</t>
@@ -119,52 +125,67 @@
     <t>Ryan</t>
   </si>
   <si>
-    <t>ANTONIO</t>
-  </si>
-  <si>
-    <t>GONZALEZ</t>
+    <t>Kid2Parent1First</t>
+  </si>
+  <si>
+    <t>Kid2Parent1Last</t>
   </si>
   <si>
     <t>01 -- Spanish</t>
   </si>
   <si>
-    <t>(408) 757-9025</t>
-  </si>
-  <si>
-    <t>1627 ORLANDO DR</t>
-  </si>
-  <si>
-    <t>San Jose</t>
-  </si>
-  <si>
-    <t>LAURA</t>
-  </si>
-  <si>
-    <t>QUIROZ</t>
+    <t>Father</t>
+  </si>
+  <si>
+    <t>(222) 555-1111</t>
+  </si>
+  <si>
+    <t>345 ORLANDO DR</t>
+  </si>
+  <si>
+    <t>Fremont</t>
+  </si>
+  <si>
+    <t>Kid2Parent2First</t>
+  </si>
+  <si>
+    <t>Kid2Parent2Last</t>
   </si>
   <si>
     <t>Female</t>
   </si>
   <si>
-    <t>YAHIR</t>
-  </si>
-  <si>
-    <t>VAZQUEZ OROZCO</t>
-  </si>
-  <si>
-    <t>ALONSO</t>
-  </si>
-  <si>
-    <t>OROZCO</t>
-  </si>
-  <si>
-    <t>(408) 420-4115</t>
-  </si>
-  <si>
-    <t>252 MAHONEY DR</t>
-  </si>
-  <si>
-    <t>ANA</t>
+    <t>Mother</t>
+  </si>
+  <si>
+    <t>(222) 555-2222</t>
+  </si>
+  <si>
+    <t>Kid1First</t>
+  </si>
+  <si>
+    <t>Kid1Last</t>
+  </si>
+  <si>
+    <t>Kid1Parent1First</t>
+  </si>
+  <si>
+    <t>Kid1Parent1Last</t>
+  </si>
+  <si>
+    <t>(555) 555-1111</t>
+  </si>
+  <si>
+    <t>123 MAHONEY DR</t>
+  </si>
+  <si>
+    <t>Kid1Parent2First</t>
+  </si>
+  <si>
+    <t>Kid1Parent2Last</t>
+  </si>
+  <si>
+    <t>(555) 555-2222</t>
   </si>
 </sst>
 </file>
@@ -503,7 +524,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI3"/>
+  <dimension ref="A1:AK3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -511,7 +532,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:37">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -600,39 +621,45 @@
         <v>28</v>
       </c>
       <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
         <v>18</v>
       </c>
-      <c r="AE1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>22</v>
-      </c>
       <c r="AG1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" t="s">
         <v>23</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>24</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>25</v>
       </c>
+      <c r="AK1" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="2" spans="1:35">
+    <row r="2" spans="1:37">
       <c r="A2" t="n">
         <v>55275</v>
       </c>
       <c r="B2" t="s"/>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
-      </c>
-      <c s="1" r="F2" t="n">
+        <v>34</v>
+      </c>
+      <c r="F2" s="1" t="n">
         <v>41647</v>
       </c>
       <c r="G2" t="s"/>
@@ -644,76 +671,82 @@
       <c r="M2" t="s"/>
       <c r="N2" t="s"/>
       <c r="O2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" t="s">
+        <v>37</v>
+      </c>
+      <c r="S2" t="s">
+        <v>38</v>
+      </c>
+      <c r="T2" t="s">
         <v>34</v>
       </c>
-      <c r="R2" t="s">
-        <v>35</v>
-      </c>
-      <c r="S2" t="s">
-        <v>36</v>
-      </c>
-      <c r="T2" t="s">
-        <v>32</v>
-      </c>
       <c r="U2" t="s">
-        <v>37</v>
-      </c>
-      <c r="V2" t="s"/>
-      <c r="W2" t="s">
-        <v>38</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="V2" t="s">
+        <v>40</v>
+      </c>
+      <c r="W2" t="s"/>
       <c r="X2" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y2" t="s"/>
-      <c r="Z2" t="n">
-        <v>95122</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>40</v>
+        <v>41</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z2" t="s"/>
+      <c r="AA2" t="n">
+        <v>94539</v>
       </c>
       <c r="AB2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="AC2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AD2" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="AE2" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="AF2" t="s">
         <v>38</v>
       </c>
       <c r="AG2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH2" t="s"/>
-      <c r="AI2" t="n">
-        <v>95122</v>
+        <v>47</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ2" t="s"/>
+      <c r="AK2" t="n">
+        <v>94539</v>
       </c>
     </row>
-    <row r="3" spans="1:35">
+    <row r="3" spans="1:37">
       <c r="A3" t="n">
         <v>58829</v>
       </c>
       <c r="B3" t="s"/>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
-      </c>
-      <c s="1" r="F3" t="n">
+        <v>34</v>
+      </c>
+      <c r="F3" s="1" t="n">
         <v>42008</v>
       </c>
       <c r="G3" t="s"/>
@@ -725,59 +758,65 @@
       <c r="M3" t="s"/>
       <c r="N3" t="s"/>
       <c r="O3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s">
+        <v>50</v>
+      </c>
+      <c r="R3" t="s">
+        <v>51</v>
+      </c>
+      <c r="S3" t="s">
+        <v>38</v>
+      </c>
+      <c r="T3" t="s">
+        <v>34</v>
+      </c>
+      <c r="U3" t="s">
+        <v>39</v>
+      </c>
+      <c r="V3" t="s">
+        <v>52</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z3" t="s"/>
+      <c r="AA3" t="n">
+        <v>94539</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD3" t="s">
         <v>45</v>
       </c>
-      <c r="R3" t="s">
+      <c r="AE3" t="s">
         <v>46</v>
       </c>
-      <c r="S3" t="s">
-        <v>36</v>
-      </c>
-      <c r="T3" t="s">
-        <v>32</v>
-      </c>
-      <c r="U3" t="s">
-        <v>47</v>
-      </c>
-      <c r="V3" t="s"/>
-      <c r="W3" t="s">
-        <v>48</v>
-      </c>
-      <c r="X3" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y3" t="s"/>
-      <c r="Z3" t="n">
-        <v>95127</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC3" t="s">
+      <c r="AF3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI3" t="s">
         <v>42</v>
       </c>
-      <c r="AD3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH3" t="s"/>
-      <c r="AI3" t="n">
-        <v>95127</v>
+      <c r="AJ3" t="s"/>
+      <c r="AK3" t="n">
+        <v>94539</v>
       </c>
     </row>
   </sheetData>
